--- a/data/02 impact country names per year.xlsx
+++ b/data/02 impact country names per year.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>project_year</t>
   </si>
@@ -26,7 +26,7 @@
     <t>India</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzania, United Republic of</t>
   </si>
   <si>
     <t>Indonesia</t>
@@ -35,114 +35,114 @@
     <t>Nigeria</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Congo, the Democratic Republic of the</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Palestine, State of</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
     <t>United States</t>
   </si>
   <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Congo, Democratic Republic of the</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Palestinian Territory</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Korea, South</t>
-  </si>
-  <si>
-    <t>paleastinian</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
     <t>Morocco</t>
   </si>
   <si>
@@ -176,22 +176,16 @@
     <t>Kyrgyzstan</t>
   </si>
   <si>
-    <t>Kenia</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
     <t>Canada</t>
   </si>
   <si>
-    <t>Beirut,Lebanon</t>
-  </si>
-  <si>
-    <t>Uganda; Kenya</t>
-  </si>
-  <si>
-    <t>Sierra Leon</t>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
   </si>
   <si>
     <t>Somalia</t>
@@ -200,30 +194,15 @@
     <t>2012</t>
   </si>
   <si>
-    <t>Congo, The Democratic Republic of The</t>
-  </si>
-  <si>
     <t>Tunisia</t>
   </si>
   <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
     <t>Senegal</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Palestinian Territory, Occupied</t>
-  </si>
-  <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -245,9 +224,6 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
     <t>Iran, Islamic Republic of</t>
   </si>
   <si>
@@ -257,36 +233,18 @@
     <t>United Kingdom</t>
   </si>
   <si>
+    <t>Niger</t>
+  </si>
+  <si>
     <t>2013</t>
   </si>
   <si>
-    <t>KISII, KENYA</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
     <t>Congo</t>
   </si>
   <si>
-    <t>Environs of Giza area, Egypt</t>
-  </si>
-  <si>
-    <t>Rongo, Kenya</t>
-  </si>
-  <si>
-    <t>Bulawayo Zimbabwe</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
-    <t>Palestinian Authority</t>
-  </si>
-  <si>
-    <t>Congo, Democratic Republic of the (Zaire)</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
@@ -296,106 +254,61 @@
     <t>Jordan</t>
   </si>
   <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Bolivia, Plurinational State of</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
     <t>Netherlands</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Timor-Leste (East Timor)</t>
-  </si>
-  <si>
-    <t>Ivory Coast (Cote D`Ivoire)</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Nairobi</t>
-  </si>
-  <si>
-    <t>New South Wales</t>
-  </si>
-  <si>
-    <t>Kuala Lumpur</t>
-  </si>
-  <si>
-    <t>Queensland</t>
-  </si>
-  <si>
-    <t>Uttar Pradesh</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Noord Holland</t>
-  </si>
-  <si>
-    <t>Punjab</t>
-  </si>
-  <si>
-    <t>Metro Manila</t>
   </si>
   <si>
     <t>Costa Rica</t>
@@ -1224,2138 +1137,2002 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" t="s">
         <v>61</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B90" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B100" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B101" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B105" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B108" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B113" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B114" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B115" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B118" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B119" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B121" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B123" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B124" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B125" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B126" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B128" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B129" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B131" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B132" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B133" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B138" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B140" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B141" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B142" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B147" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B149" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B150" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B151" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B152" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B153" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B154" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B155" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B156" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>74</v>
+      </c>
+      <c r="B157" t="s">
         <v>81</v>
-      </c>
-      <c r="B157" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B159" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B160" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B162" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B163" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B164" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B165" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B166" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B167" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B169" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B170" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B171" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B173" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B174" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B175" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B176" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B177" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B178" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B179" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B180" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B182" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B183" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B184" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B185" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B186" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B187" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B188" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B189" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B190" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B191" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B192" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B193" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B194" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B195" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B196" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B197" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B198" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B199" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B200" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B202" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B205" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B206" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B208" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B209" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B211" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B212" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B213" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B214" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B215" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B216" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B217" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B218" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B219" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B220" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B221" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B222" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B223" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B224" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B225" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B226" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B227" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B228" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B229" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B230" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B231" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B232" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B233" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B235" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B236" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B237" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B238" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B239" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B240" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B241" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B242" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B243" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B244" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B245" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B246" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B247" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B248" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B249" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B250" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B251" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B252" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B253" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B254" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B255" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B256" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B257" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B258" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B259" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B260" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B261" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B262" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B263" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B264" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B265" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B266" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B267" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B268" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B269" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B270" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B271" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B272" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B273" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B274" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B275" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B276" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B277" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B278" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B279" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B280" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B281" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B282" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B283" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B284" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B285" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B286" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B287" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B288" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B289" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B290" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B291" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B292" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B293" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B294" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B295" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B296" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B297" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B298" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B299" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B300" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B301" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B302" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B303" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B304" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B305" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B306" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B307" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s">
-        <v>134</v>
-      </c>
-      <c r="B308" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="s">
-        <v>134</v>
-      </c>
-      <c r="B309" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s">
-        <v>134</v>
-      </c>
-      <c r="B310" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s">
-        <v>134</v>
-      </c>
-      <c r="B311" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s">
-        <v>134</v>
-      </c>
-      <c r="B312" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="s">
-        <v>134</v>
-      </c>
-      <c r="B313" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="s">
-        <v>134</v>
-      </c>
-      <c r="B314" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="s">
-        <v>134</v>
-      </c>
-      <c r="B315" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s">
-        <v>134</v>
-      </c>
-      <c r="B316" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s">
-        <v>134</v>
-      </c>
-      <c r="B317" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s">
-        <v>134</v>
-      </c>
-      <c r="B318" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s">
-        <v>134</v>
-      </c>
-      <c r="B319" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="s">
-        <v>134</v>
-      </c>
-      <c r="B320" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s">
-        <v>134</v>
-      </c>
-      <c r="B321" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>134</v>
-      </c>
-      <c r="B322" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>134</v>
-      </c>
-      <c r="B323" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s">
-        <v>134</v>
-      </c>
-      <c r="B324" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/02 impact country names per year.xlsx
+++ b/data/02 impact country names per year.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>project_year</t>
   </si>
@@ -92,6 +92,9 @@
     <t>Philippines</t>
   </si>
   <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
     <t>Pakistan</t>
   </si>
   <si>
@@ -155,9 +158,6 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
     <t>Liberia</t>
   </si>
   <si>
@@ -203,30 +203,30 @@
     <t>Senegal</t>
   </si>
   <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
+    <t>Iran, Islamic Republic of</t>
   </si>
   <si>
     <t>Madagascar</t>
   </si>
   <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
     <t>Korea, Democratic People's Republic of</t>
   </si>
   <si>
@@ -242,15 +242,9 @@
     <t>Congo</t>
   </si>
   <si>
-    <t>Portugal</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
@@ -260,27 +254,27 @@
     <t>Maldives</t>
   </si>
   <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
     <t>New Zealand</t>
   </si>
   <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
     <t>Iceland</t>
   </si>
   <si>
@@ -308,25 +302,28 @@
     <t>Kazakhstan</t>
   </si>
   <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
     <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Turkey</t>
   </si>
   <si>
     <t>2015</t>
@@ -1156,7 +1153,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -1164,7 +1161,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
@@ -1228,7 +1225,7 @@
         <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
@@ -1308,7 +1305,7 @@
         <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1313,7 @@
         <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
@@ -1340,7 +1337,7 @@
         <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
@@ -1372,7 +1369,7 @@
         <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -1380,7 +1377,7 @@
         <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
@@ -1396,7 +1393,7 @@
         <v>59</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91">
@@ -1412,7 +1409,7 @@
         <v>59</v>
       </c>
       <c r="B92" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93">
@@ -1420,7 +1417,7 @@
         <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94">
@@ -1428,7 +1425,7 @@
         <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95">
@@ -1436,7 +1433,7 @@
         <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96">
@@ -1452,7 +1449,7 @@
         <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
@@ -1460,7 +1457,7 @@
         <v>59</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99">
@@ -1468,7 +1465,7 @@
         <v>59</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1473,7 @@
         <v>59</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101">
@@ -1484,7 +1481,7 @@
         <v>59</v>
       </c>
       <c r="B101" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
@@ -1492,7 +1489,7 @@
         <v>59</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
@@ -1500,7 +1497,7 @@
         <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1505,7 @@
         <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
@@ -1516,7 +1513,7 @@
         <v>59</v>
       </c>
       <c r="B105" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106">
@@ -1524,7 +1521,7 @@
         <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107">
@@ -1532,7 +1529,7 @@
         <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108">
@@ -1540,7 +1537,7 @@
         <v>59</v>
       </c>
       <c r="B108" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109">
@@ -1548,7 +1545,7 @@
         <v>59</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110">
@@ -1644,7 +1641,7 @@
         <v>74</v>
       </c>
       <c r="B121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
@@ -1676,7 +1673,7 @@
         <v>74</v>
       </c>
       <c r="B125" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
@@ -1700,7 +1697,7 @@
         <v>74</v>
       </c>
       <c r="B128" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="129">
@@ -1724,7 +1721,7 @@
         <v>74</v>
       </c>
       <c r="B131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
@@ -1740,7 +1737,7 @@
         <v>74</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134">
@@ -1756,7 +1753,7 @@
         <v>74</v>
       </c>
       <c r="B135" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136">
@@ -1764,7 +1761,7 @@
         <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
@@ -1772,7 +1769,7 @@
         <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138">
@@ -1788,7 +1785,7 @@
         <v>74</v>
       </c>
       <c r="B139" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="140">
@@ -1812,7 +1809,7 @@
         <v>74</v>
       </c>
       <c r="B142" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143">
@@ -1828,7 +1825,7 @@
         <v>74</v>
       </c>
       <c r="B144" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145">
@@ -1836,7 +1833,7 @@
         <v>74</v>
       </c>
       <c r="B145" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="146">
@@ -1844,7 +1841,7 @@
         <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147">
@@ -1852,7 +1849,7 @@
         <v>74</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148">
@@ -1860,7 +1857,7 @@
         <v>74</v>
       </c>
       <c r="B148" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149">
@@ -1868,7 +1865,7 @@
         <v>74</v>
       </c>
       <c r="B149" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150">
@@ -1876,7 +1873,7 @@
         <v>74</v>
       </c>
       <c r="B150" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151">
@@ -1884,7 +1881,7 @@
         <v>74</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152">
@@ -1892,7 +1889,7 @@
         <v>74</v>
       </c>
       <c r="B152" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153">
@@ -1900,7 +1897,7 @@
         <v>74</v>
       </c>
       <c r="B153" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154">
@@ -1908,7 +1905,7 @@
         <v>74</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155">
@@ -1916,7 +1913,7 @@
         <v>74</v>
       </c>
       <c r="B155" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156">
@@ -1924,7 +1921,7 @@
         <v>74</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="157">
@@ -1932,7 +1929,7 @@
         <v>74</v>
       </c>
       <c r="B157" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="158">
@@ -1940,7 +1937,7 @@
         <v>74</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159">
@@ -1948,7 +1945,7 @@
         <v>74</v>
       </c>
       <c r="B159" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160">
@@ -1956,7 +1953,7 @@
         <v>74</v>
       </c>
       <c r="B160" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161">
@@ -1964,7 +1961,7 @@
         <v>74</v>
       </c>
       <c r="B161" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="162">
@@ -1972,7 +1969,7 @@
         <v>74</v>
       </c>
       <c r="B162" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163">
@@ -1980,7 +1977,7 @@
         <v>74</v>
       </c>
       <c r="B163" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164">
@@ -1988,7 +1985,7 @@
         <v>74</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165">
@@ -1996,7 +1993,7 @@
         <v>74</v>
       </c>
       <c r="B165" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166">
@@ -2004,7 +2001,7 @@
         <v>74</v>
       </c>
       <c r="B166" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="167">
@@ -2012,7 +2009,7 @@
         <v>74</v>
       </c>
       <c r="B167" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168">
@@ -2020,7 +2017,7 @@
         <v>74</v>
       </c>
       <c r="B168" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="169">
@@ -2028,7 +2025,7 @@
         <v>74</v>
       </c>
       <c r="B169" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="170">
@@ -2036,7 +2033,7 @@
         <v>74</v>
       </c>
       <c r="B170" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171">
@@ -2044,7 +2041,7 @@
         <v>74</v>
       </c>
       <c r="B171" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="172">
@@ -2052,7 +2049,7 @@
         <v>74</v>
       </c>
       <c r="B172" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="173">
@@ -2060,7 +2057,7 @@
         <v>74</v>
       </c>
       <c r="B173" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="174">
@@ -2068,7 +2065,7 @@
         <v>74</v>
       </c>
       <c r="B174" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="175">
@@ -2076,7 +2073,7 @@
         <v>74</v>
       </c>
       <c r="B175" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176">
@@ -2084,7 +2081,7 @@
         <v>74</v>
       </c>
       <c r="B176" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="177">
@@ -2092,7 +2089,7 @@
         <v>74</v>
       </c>
       <c r="B177" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="178">
@@ -2100,7 +2097,7 @@
         <v>74</v>
       </c>
       <c r="B178" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179">
@@ -2108,980 +2105,980 @@
         <v>74</v>
       </c>
       <c r="B179" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B180" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B181" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B182" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B183" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B184" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B185" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B186" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B187" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B188" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B189" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B190" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B191" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B192" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B196" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B197" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B198" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B200" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B201" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
+        <v>90</v>
+      </c>
+      <c r="B204" t="s">
         <v>92</v>
-      </c>
-      <c r="B204" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B205" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B206" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B207" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B208" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B209" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B210" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B211" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B212" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B213" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B214" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B215" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B217" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B218" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B219" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B220" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B221" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B222" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B223" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B224" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B225" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B227" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B228" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B229" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B230" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B231" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B232" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B234" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B235" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B236" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B237" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B238" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B239" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B240" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B241" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B242" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B244" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B245" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B246" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B247" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B248" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B249" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B250" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B251" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
+        <v>104</v>
+      </c>
+      <c r="B252" t="s">
         <v>105</v>
-      </c>
-      <c r="B252" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B254" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B255" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B256" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B257" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B258" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B259" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B260" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B261" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B262" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B263" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B264" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B265" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B266" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B267" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B268" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B269" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B270" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B271" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B272" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B273" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B274" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B275" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B276" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B277" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B278" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B279" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B280" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B281" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B282" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B283" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B284" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B285" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B286" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B287" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B288" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B289" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B290" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B291" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B292" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B293" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B294" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B295" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B296" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B297" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B298" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B299" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B300" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B301" t="s">
         <v>110</v>
@@ -3089,49 +3086,9 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B302" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s">
-        <v>105</v>
-      </c>
-      <c r="B303" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s">
-        <v>105</v>
-      </c>
-      <c r="B304" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s">
-        <v>105</v>
-      </c>
-      <c r="B305" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s">
-        <v>105</v>
-      </c>
-      <c r="B306" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s">
-        <v>105</v>
-      </c>
-      <c r="B307" t="s">
         <v>58</v>
       </c>
     </row>

--- a/data/02 impact country names per year.xlsx
+++ b/data/02 impact country names per year.xlsx
@@ -23,328 +23,328 @@
     <t>2011</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Congo, the Democratic Republic of the</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palestine, State of</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
     <t>Tanzania, United Republic of</t>
   </si>
   <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t/>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
   </si>
   <si>
     <t>Zambia</t>
   </si>
   <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Congo, the Democratic Republic of the</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Palestine, State of</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Lao People's Democratic Republic</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
     <t>2012</t>
   </si>
   <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Republic of</t>
+  </si>
+  <si>
+    <t>Korea, Democratic People's Republic of</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
     <t>Tunisia</t>
   </si>
   <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Senegal</t>
+    <t>United Kingdom</t>
   </si>
   <si>
     <t>Yemen</t>
   </si>
   <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Korea, Democratic People's Republic of</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
     <t>2013</t>
   </si>
   <si>
+    <t>Bolivia, Plurinational State of</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
     <t>Congo</t>
   </si>
   <si>
-    <t>Chad</t>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Iceland</t>
   </si>
   <si>
     <t>Jordan</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>Maldives</t>
   </si>
   <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Bolivia, Plurinational State of</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>2014</t>
   </si>
   <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
     <t>Armenia</t>
   </si>
   <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
     <t>Benin</t>
   </si>
   <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
     <t>Romania</t>
   </si>
   <si>
     <t>Syrian Arab Republic</t>
   </si>
   <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
+    <t>Turkey</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
     <t>2015</t>
   </si>
   <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
     <t>Mongolia</t>
   </si>
   <si>
     <t>Myanmar</t>
   </si>
   <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
     <t>Serbia</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1137,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -1145,7 +1145,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -1153,7 +1153,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -1161,7 +1161,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -1177,7 +1177,7 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -1185,7 +1185,7 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -1193,7 +1193,7 @@
         <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -1201,7 +1201,7 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -1209,7 +1209,7 @@
         <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -1217,7 +1217,7 @@
         <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
@@ -1225,7 +1225,7 @@
         <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
@@ -1241,7 +1241,7 @@
         <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
@@ -1249,7 +1249,7 @@
         <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -1257,7 +1257,7 @@
         <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
@@ -1273,7 +1273,7 @@
         <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
@@ -1281,7 +1281,7 @@
         <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -1289,7 +1289,7 @@
         <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
@@ -1297,7 +1297,7 @@
         <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
@@ -1313,7 +1313,7 @@
         <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
@@ -1321,7 +1321,7 @@
         <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
@@ -1329,7 +1329,7 @@
         <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83">
@@ -1337,7 +1337,7 @@
         <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84">
@@ -1345,7 +1345,7 @@
         <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -1353,7 +1353,7 @@
         <v>59</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
@@ -1361,7 +1361,7 @@
         <v>59</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87">
@@ -1369,7 +1369,7 @@
         <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88">
@@ -1377,7 +1377,7 @@
         <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89">
@@ -1385,7 +1385,7 @@
         <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90">
@@ -1393,7 +1393,7 @@
         <v>59</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91">
@@ -1401,7 +1401,7 @@
         <v>59</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92">
@@ -1409,7 +1409,7 @@
         <v>59</v>
       </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93">
@@ -1417,7 +1417,7 @@
         <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94">
@@ -1425,7 +1425,7 @@
         <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95">
@@ -1433,7 +1433,7 @@
         <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96">
@@ -1441,7 +1441,7 @@
         <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97">
@@ -1449,7 +1449,7 @@
         <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98">
@@ -1457,7 +1457,7 @@
         <v>59</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99">
@@ -1465,7 +1465,7 @@
         <v>59</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100">
@@ -1473,7 +1473,7 @@
         <v>59</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101">
@@ -1481,7 +1481,7 @@
         <v>59</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102">
@@ -1489,7 +1489,7 @@
         <v>59</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104">
@@ -1505,7 +1505,7 @@
         <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105">
@@ -1513,7 +1513,7 @@
         <v>59</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106">
@@ -1521,7 +1521,7 @@
         <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107">
@@ -1529,7 +1529,7 @@
         <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108">
@@ -1537,7 +1537,7 @@
         <v>59</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109">
@@ -1545,7 +1545,7 @@
         <v>59</v>
       </c>
       <c r="B109" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110">
@@ -1553,7 +1553,7 @@
         <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111">
@@ -1561,7 +1561,7 @@
         <v>59</v>
       </c>
       <c r="B111" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112">
@@ -1569,7 +1569,7 @@
         <v>59</v>
       </c>
       <c r="B112" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113">
@@ -1577,7 +1577,7 @@
         <v>59</v>
       </c>
       <c r="B113" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114">
@@ -1585,7 +1585,7 @@
         <v>74</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
@@ -1593,7 +1593,7 @@
         <v>74</v>
       </c>
       <c r="B115" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -1601,7 +1601,7 @@
         <v>74</v>
       </c>
       <c r="B116" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117">
@@ -1609,7 +1609,7 @@
         <v>74</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118">
@@ -1617,7 +1617,7 @@
         <v>74</v>
       </c>
       <c r="B118" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119">
@@ -1625,7 +1625,7 @@
         <v>74</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
@@ -1633,7 +1633,7 @@
         <v>74</v>
       </c>
       <c r="B120" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121">
@@ -1641,7 +1641,7 @@
         <v>74</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122">
@@ -1649,7 +1649,7 @@
         <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123">
@@ -1657,7 +1657,7 @@
         <v>74</v>
       </c>
       <c r="B123" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124">
@@ -1665,7 +1665,7 @@
         <v>74</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
@@ -1673,7 +1673,7 @@
         <v>74</v>
       </c>
       <c r="B125" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126">
@@ -1681,7 +1681,7 @@
         <v>74</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127">
@@ -1689,7 +1689,7 @@
         <v>74</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128">
@@ -1697,7 +1697,7 @@
         <v>74</v>
       </c>
       <c r="B128" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129">
@@ -1705,7 +1705,7 @@
         <v>74</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
     </row>
     <row r="130">
@@ -1713,7 +1713,7 @@
         <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131">
@@ -1721,7 +1721,7 @@
         <v>74</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132">
@@ -1729,7 +1729,7 @@
         <v>74</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133">
@@ -1737,7 +1737,7 @@
         <v>74</v>
       </c>
       <c r="B133" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134">
@@ -1745,7 +1745,7 @@
         <v>74</v>
       </c>
       <c r="B134" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135">
@@ -1753,7 +1753,7 @@
         <v>74</v>
       </c>
       <c r="B135" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136">
@@ -1761,7 +1761,7 @@
         <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="137">
@@ -1769,7 +1769,7 @@
         <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138">
@@ -1777,7 +1777,7 @@
         <v>74</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139">
@@ -1785,7 +1785,7 @@
         <v>74</v>
       </c>
       <c r="B139" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
@@ -1793,7 +1793,7 @@
         <v>74</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141">
@@ -1801,7 +1801,7 @@
         <v>74</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142">
@@ -1809,7 +1809,7 @@
         <v>74</v>
       </c>
       <c r="B142" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="143">
@@ -1817,7 +1817,7 @@
         <v>74</v>
       </c>
       <c r="B143" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -1825,7 +1825,7 @@
         <v>74</v>
       </c>
       <c r="B144" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145">
@@ -1833,7 +1833,7 @@
         <v>74</v>
       </c>
       <c r="B145" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146">
@@ -1841,7 +1841,7 @@
         <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147">
@@ -1849,7 +1849,7 @@
         <v>74</v>
       </c>
       <c r="B147" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148">
@@ -1857,7 +1857,7 @@
         <v>74</v>
       </c>
       <c r="B148" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149">
@@ -1865,7 +1865,7 @@
         <v>74</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="150">
@@ -1873,7 +1873,7 @@
         <v>74</v>
       </c>
       <c r="B150" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151">
@@ -1881,7 +1881,7 @@
         <v>74</v>
       </c>
       <c r="B151" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="152">
@@ -1889,7 +1889,7 @@
         <v>74</v>
       </c>
       <c r="B152" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153">
@@ -1897,7 +1897,7 @@
         <v>74</v>
       </c>
       <c r="B153" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="154">
@@ -1905,7 +1905,7 @@
         <v>74</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155">
@@ -1913,7 +1913,7 @@
         <v>74</v>
       </c>
       <c r="B155" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156">
@@ -1921,7 +1921,7 @@
         <v>74</v>
       </c>
       <c r="B156" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="157">
@@ -1929,7 +1929,7 @@
         <v>74</v>
       </c>
       <c r="B157" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158">
@@ -1937,7 +1937,7 @@
         <v>74</v>
       </c>
       <c r="B158" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159">
@@ -1945,7 +1945,7 @@
         <v>74</v>
       </c>
       <c r="B159" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160">
@@ -1953,7 +1953,7 @@
         <v>74</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161">
@@ -1961,7 +1961,7 @@
         <v>74</v>
       </c>
       <c r="B161" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162">
@@ -1969,7 +1969,7 @@
         <v>74</v>
       </c>
       <c r="B162" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163">
@@ -1977,7 +1977,7 @@
         <v>74</v>
       </c>
       <c r="B163" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="164">
@@ -1985,7 +1985,7 @@
         <v>74</v>
       </c>
       <c r="B164" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165">
@@ -1993,7 +1993,7 @@
         <v>74</v>
       </c>
       <c r="B165" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="166">
@@ -2001,7 +2001,7 @@
         <v>74</v>
       </c>
       <c r="B166" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="167">
@@ -2009,7 +2009,7 @@
         <v>74</v>
       </c>
       <c r="B167" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="168">
@@ -2017,7 +2017,7 @@
         <v>74</v>
       </c>
       <c r="B168" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="169">
@@ -2025,7 +2025,7 @@
         <v>74</v>
       </c>
       <c r="B169" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="170">
@@ -2033,7 +2033,7 @@
         <v>74</v>
       </c>
       <c r="B170" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171">
@@ -2041,7 +2041,7 @@
         <v>74</v>
       </c>
       <c r="B171" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172">
@@ -2049,7 +2049,7 @@
         <v>74</v>
       </c>
       <c r="B172" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="173">
@@ -2057,7 +2057,7 @@
         <v>74</v>
       </c>
       <c r="B173" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="174">
@@ -2065,7 +2065,7 @@
         <v>74</v>
       </c>
       <c r="B174" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="175">
@@ -2073,7 +2073,7 @@
         <v>74</v>
       </c>
       <c r="B175" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="176">
@@ -2081,7 +2081,7 @@
         <v>74</v>
       </c>
       <c r="B176" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177">
@@ -2089,7 +2089,7 @@
         <v>74</v>
       </c>
       <c r="B177" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="178">
@@ -2097,7 +2097,7 @@
         <v>74</v>
       </c>
       <c r="B178" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179">
@@ -2105,7 +2105,7 @@
         <v>74</v>
       </c>
       <c r="B179" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180">
@@ -2121,7 +2121,7 @@
         <v>90</v>
       </c>
       <c r="B181" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="182">
@@ -2129,7 +2129,7 @@
         <v>90</v>
       </c>
       <c r="B182" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="183">
@@ -2137,7 +2137,7 @@
         <v>90</v>
       </c>
       <c r="B183" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
@@ -2145,7 +2145,7 @@
         <v>90</v>
       </c>
       <c r="B184" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
     </row>
     <row r="185">
@@ -2153,7 +2153,7 @@
         <v>90</v>
       </c>
       <c r="B185" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186">
@@ -2161,7 +2161,7 @@
         <v>90</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
     </row>
     <row r="187">
@@ -2169,7 +2169,7 @@
         <v>90</v>
       </c>
       <c r="B187" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
@@ -2177,7 +2177,7 @@
         <v>90</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189">
@@ -2185,7 +2185,7 @@
         <v>90</v>
       </c>
       <c r="B189" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190">
@@ -2193,7 +2193,7 @@
         <v>90</v>
       </c>
       <c r="B190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191">
@@ -2201,7 +2201,7 @@
         <v>90</v>
       </c>
       <c r="B191" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192">
@@ -2209,7 +2209,7 @@
         <v>90</v>
       </c>
       <c r="B192" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193">
@@ -2217,7 +2217,7 @@
         <v>90</v>
       </c>
       <c r="B193" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="194">
@@ -2225,7 +2225,7 @@
         <v>90</v>
       </c>
       <c r="B194" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="195">
@@ -2233,7 +2233,7 @@
         <v>90</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196">
@@ -2241,7 +2241,7 @@
         <v>90</v>
       </c>
       <c r="B196" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197">
@@ -2249,7 +2249,7 @@
         <v>90</v>
       </c>
       <c r="B197" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="198">
@@ -2257,7 +2257,7 @@
         <v>90</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="199">
@@ -2265,7 +2265,7 @@
         <v>90</v>
       </c>
       <c r="B199" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200">
@@ -2273,7 +2273,7 @@
         <v>90</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="201">
@@ -2281,7 +2281,7 @@
         <v>90</v>
       </c>
       <c r="B201" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202">
@@ -2289,7 +2289,7 @@
         <v>90</v>
       </c>
       <c r="B202" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203">
@@ -2297,7 +2297,7 @@
         <v>90</v>
       </c>
       <c r="B203" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204">
@@ -2305,7 +2305,7 @@
         <v>90</v>
       </c>
       <c r="B204" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205">
@@ -2313,7 +2313,7 @@
         <v>90</v>
       </c>
       <c r="B205" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="206">
@@ -2321,7 +2321,7 @@
         <v>90</v>
       </c>
       <c r="B206" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
     </row>
     <row r="207">
@@ -2329,7 +2329,7 @@
         <v>90</v>
       </c>
       <c r="B207" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208">
@@ -2337,7 +2337,7 @@
         <v>90</v>
       </c>
       <c r="B208" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="209">
@@ -2345,7 +2345,7 @@
         <v>90</v>
       </c>
       <c r="B209" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="210">
@@ -2361,7 +2361,7 @@
         <v>90</v>
       </c>
       <c r="B211" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212">
@@ -2369,7 +2369,7 @@
         <v>90</v>
       </c>
       <c r="B212" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="213">
@@ -2377,7 +2377,7 @@
         <v>90</v>
       </c>
       <c r="B213" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="214">
@@ -2385,7 +2385,7 @@
         <v>90</v>
       </c>
       <c r="B214" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="215">
@@ -2393,7 +2393,7 @@
         <v>90</v>
       </c>
       <c r="B215" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="216">
@@ -2401,7 +2401,7 @@
         <v>90</v>
       </c>
       <c r="B216" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="217">
@@ -2409,7 +2409,7 @@
         <v>90</v>
       </c>
       <c r="B217" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="218">
@@ -2417,7 +2417,7 @@
         <v>90</v>
       </c>
       <c r="B218" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="219">
@@ -2425,7 +2425,7 @@
         <v>90</v>
       </c>
       <c r="B219" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="220">
@@ -2433,7 +2433,7 @@
         <v>90</v>
       </c>
       <c r="B220" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="221">
@@ -2441,7 +2441,7 @@
         <v>90</v>
       </c>
       <c r="B221" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="222">
@@ -2449,7 +2449,7 @@
         <v>90</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="223">
@@ -2457,7 +2457,7 @@
         <v>90</v>
       </c>
       <c r="B223" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="224">
@@ -2465,7 +2465,7 @@
         <v>90</v>
       </c>
       <c r="B224" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="225">
@@ -2473,7 +2473,7 @@
         <v>90</v>
       </c>
       <c r="B225" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="226">
@@ -2481,7 +2481,7 @@
         <v>90</v>
       </c>
       <c r="B226" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="227">
@@ -2489,7 +2489,7 @@
         <v>90</v>
       </c>
       <c r="B227" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="228">
@@ -2497,7 +2497,7 @@
         <v>90</v>
       </c>
       <c r="B228" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="229">
@@ -2505,7 +2505,7 @@
         <v>90</v>
       </c>
       <c r="B229" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="230">
@@ -2513,7 +2513,7 @@
         <v>90</v>
       </c>
       <c r="B230" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="231">
@@ -2521,7 +2521,7 @@
         <v>90</v>
       </c>
       <c r="B231" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
     </row>
     <row r="232">
@@ -2529,7 +2529,7 @@
         <v>90</v>
       </c>
       <c r="B232" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="233">
@@ -2537,7 +2537,7 @@
         <v>90</v>
       </c>
       <c r="B233" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234">
@@ -2545,7 +2545,7 @@
         <v>90</v>
       </c>
       <c r="B234" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="235">
@@ -2553,7 +2553,7 @@
         <v>90</v>
       </c>
       <c r="B235" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="236">
@@ -2561,7 +2561,7 @@
         <v>90</v>
       </c>
       <c r="B236" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="237">
@@ -2569,7 +2569,7 @@
         <v>90</v>
       </c>
       <c r="B237" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="238">
@@ -2577,7 +2577,7 @@
         <v>90</v>
       </c>
       <c r="B238" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="239">
@@ -2585,7 +2585,7 @@
         <v>90</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="240">
@@ -2593,7 +2593,7 @@
         <v>90</v>
       </c>
       <c r="B240" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="241">
@@ -2601,7 +2601,7 @@
         <v>90</v>
       </c>
       <c r="B241" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="242">
@@ -2609,7 +2609,7 @@
         <v>90</v>
       </c>
       <c r="B242" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243">
@@ -2617,7 +2617,7 @@
         <v>90</v>
       </c>
       <c r="B243" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="244">
@@ -2625,7 +2625,7 @@
         <v>90</v>
       </c>
       <c r="B244" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
     </row>
     <row r="245">
@@ -2633,7 +2633,7 @@
         <v>90</v>
       </c>
       <c r="B245" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="246">
@@ -2641,7 +2641,7 @@
         <v>90</v>
       </c>
       <c r="B246" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="247">
@@ -2649,7 +2649,7 @@
         <v>90</v>
       </c>
       <c r="B247" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
     </row>
     <row r="248">
@@ -2657,7 +2657,7 @@
         <v>104</v>
       </c>
       <c r="B248" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249">
@@ -2665,7 +2665,7 @@
         <v>104</v>
       </c>
       <c r="B249" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
@@ -2673,7 +2673,7 @@
         <v>104</v>
       </c>
       <c r="B250" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
     </row>
     <row r="251">
@@ -2681,7 +2681,7 @@
         <v>104</v>
       </c>
       <c r="B251" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252">
@@ -2689,7 +2689,7 @@
         <v>104</v>
       </c>
       <c r="B252" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="253">
@@ -2697,7 +2697,7 @@
         <v>104</v>
       </c>
       <c r="B253" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="254">
@@ -2705,7 +2705,7 @@
         <v>104</v>
       </c>
       <c r="B254" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
     </row>
     <row r="255">
@@ -2713,7 +2713,7 @@
         <v>104</v>
       </c>
       <c r="B255" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="256">
@@ -2721,7 +2721,7 @@
         <v>104</v>
       </c>
       <c r="B256" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
@@ -2729,7 +2729,7 @@
         <v>104</v>
       </c>
       <c r="B257" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258">
@@ -2737,7 +2737,7 @@
         <v>104</v>
       </c>
       <c r="B258" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259">
@@ -2745,7 +2745,7 @@
         <v>104</v>
       </c>
       <c r="B259" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260">
@@ -2753,7 +2753,7 @@
         <v>104</v>
       </c>
       <c r="B260" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
     </row>
     <row r="261">
@@ -2761,7 +2761,7 @@
         <v>104</v>
       </c>
       <c r="B261" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="262">
@@ -2769,7 +2769,7 @@
         <v>104</v>
       </c>
       <c r="B262" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="263">
@@ -2777,7 +2777,7 @@
         <v>104</v>
       </c>
       <c r="B263" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264">
@@ -2785,7 +2785,7 @@
         <v>104</v>
       </c>
       <c r="B264" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="265">
@@ -2793,7 +2793,7 @@
         <v>104</v>
       </c>
       <c r="B265" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266">
@@ -2801,7 +2801,7 @@
         <v>104</v>
       </c>
       <c r="B266" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="267">
@@ -2809,7 +2809,7 @@
         <v>104</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="268">
@@ -2817,7 +2817,7 @@
         <v>104</v>
       </c>
       <c r="B268" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269">
@@ -2825,7 +2825,7 @@
         <v>104</v>
       </c>
       <c r="B269" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="270">
@@ -2833,7 +2833,7 @@
         <v>104</v>
       </c>
       <c r="B270" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="271">
@@ -2841,7 +2841,7 @@
         <v>104</v>
       </c>
       <c r="B271" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272">
@@ -2849,7 +2849,7 @@
         <v>104</v>
       </c>
       <c r="B272" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="273">
@@ -2857,7 +2857,7 @@
         <v>104</v>
       </c>
       <c r="B273" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="274">
@@ -2865,7 +2865,7 @@
         <v>104</v>
       </c>
       <c r="B274" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="275">
@@ -2873,7 +2873,7 @@
         <v>104</v>
       </c>
       <c r="B275" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="276">
@@ -2881,7 +2881,7 @@
         <v>104</v>
       </c>
       <c r="B276" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="277">
@@ -2889,7 +2889,7 @@
         <v>104</v>
       </c>
       <c r="B277" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
     </row>
     <row r="278">
@@ -2897,7 +2897,7 @@
         <v>104</v>
       </c>
       <c r="B278" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="279">
@@ -2905,7 +2905,7 @@
         <v>104</v>
       </c>
       <c r="B279" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="280">
@@ -2913,7 +2913,7 @@
         <v>104</v>
       </c>
       <c r="B280" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
     </row>
     <row r="281">
@@ -2921,7 +2921,7 @@
         <v>104</v>
       </c>
       <c r="B281" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
     </row>
     <row r="282">
@@ -2929,7 +2929,7 @@
         <v>104</v>
       </c>
       <c r="B282" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="283">
@@ -2937,7 +2937,7 @@
         <v>104</v>
       </c>
       <c r="B283" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="284">
@@ -2945,7 +2945,7 @@
         <v>104</v>
       </c>
       <c r="B284" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="285">
@@ -2953,7 +2953,7 @@
         <v>104</v>
       </c>
       <c r="B285" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="286">
@@ -2961,7 +2961,7 @@
         <v>104</v>
       </c>
       <c r="B286" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
     </row>
     <row r="287">
@@ -2969,7 +2969,7 @@
         <v>104</v>
       </c>
       <c r="B287" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="288">
@@ -2977,7 +2977,7 @@
         <v>104</v>
       </c>
       <c r="B288" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="289">
@@ -2985,7 +2985,7 @@
         <v>104</v>
       </c>
       <c r="B289" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="290">
@@ -2993,7 +2993,7 @@
         <v>104</v>
       </c>
       <c r="B290" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="291">
@@ -3001,7 +3001,7 @@
         <v>104</v>
       </c>
       <c r="B291" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="292">
@@ -3009,7 +3009,7 @@
         <v>104</v>
       </c>
       <c r="B292" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="293">
@@ -3017,7 +3017,7 @@
         <v>104</v>
       </c>
       <c r="B293" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="294">
@@ -3025,7 +3025,7 @@
         <v>104</v>
       </c>
       <c r="B294" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="295">
@@ -3033,7 +3033,7 @@
         <v>104</v>
       </c>
       <c r="B295" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
     </row>
     <row r="296">
@@ -3041,7 +3041,7 @@
         <v>104</v>
       </c>
       <c r="B296" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
     </row>
     <row r="297">
@@ -3049,7 +3049,7 @@
         <v>104</v>
       </c>
       <c r="B297" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
     </row>
     <row r="298">
@@ -3057,7 +3057,7 @@
         <v>104</v>
       </c>
       <c r="B298" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="299">
@@ -3065,7 +3065,7 @@
         <v>104</v>
       </c>
       <c r="B299" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="300">
@@ -3073,7 +3073,7 @@
         <v>104</v>
       </c>
       <c r="B300" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
     </row>
     <row r="301">
@@ -3081,7 +3081,7 @@
         <v>104</v>
       </c>
       <c r="B301" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
     </row>
     <row r="302">

--- a/data/02 impact country names per year.xlsx
+++ b/data/02 impact country names per year.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>project_year</t>
   </si>
@@ -21,9 +21,6 @@
   </si>
   <si>
     <t>2011</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1126,15 +1123,15 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
@@ -1142,7 +1139,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -1150,31 +1147,31 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
         <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -1182,7 +1179,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -1190,7 +1187,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
@@ -1198,15 +1195,15 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
@@ -1214,7 +1211,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
@@ -1222,7 +1219,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
@@ -1230,7 +1227,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
@@ -1238,7 +1235,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
@@ -1246,7 +1243,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -1254,23 +1251,23 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
@@ -1278,31 +1275,31 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -1310,55 +1307,55 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s">
         <v>64</v>
@@ -1366,47 +1363,47 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B92" t="s">
         <v>40</v>
@@ -1414,7 +1411,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B93" t="s">
         <v>41</v>
@@ -1422,7 +1419,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s">
         <v>43</v>
@@ -1438,23 +1435,23 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B97" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s">
         <v>45</v>
@@ -1462,23 +1459,23 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B99" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B100" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B101" t="s">
         <v>47</v>
@@ -1486,7 +1483,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B102" t="s">
         <v>48</v>
@@ -1494,23 +1491,23 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B103" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B105" t="s">
         <v>51</v>
@@ -1518,55 +1515,55 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B107" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s">
         <v>57</v>
@@ -1574,55 +1571,55 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B113" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>73</v>
+      </c>
+      <c r="B115" t="s">
         <v>74</v>
-      </c>
-      <c r="B115" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B118" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -1630,7 +1627,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
@@ -1638,15 +1635,15 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B122" t="s">
         <v>77</v>
@@ -1654,31 +1651,31 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B123" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B125" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B126" t="s">
         <v>17</v>
@@ -1686,15 +1683,15 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B128" t="s">
         <v>80</v>
@@ -1702,31 +1699,31 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B129" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B131" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B132" t="s">
         <v>20</v>
@@ -1734,7 +1731,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B133" t="s">
         <v>21</v>
@@ -1742,7 +1739,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B134" t="s">
         <v>22</v>
@@ -1750,23 +1747,23 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B135" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B136" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B137" t="s">
         <v>25</v>
@@ -1774,15 +1771,15 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B138" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B139" t="s">
         <v>29</v>
@@ -1790,7 +1787,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B140" t="s">
         <v>30</v>
@@ -1798,23 +1795,23 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B142" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B143" t="s">
         <v>32</v>
@@ -1822,39 +1819,39 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B144" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B145" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B147" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B148" t="s">
         <v>64</v>
@@ -1862,39 +1859,39 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B149" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B150" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B151" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B152" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B153" t="s">
         <v>39</v>
@@ -1902,7 +1899,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B154" t="s">
         <v>40</v>
@@ -1910,7 +1907,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B155" t="s">
         <v>41</v>
@@ -1918,7 +1915,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B156" t="s">
         <v>42</v>
@@ -1926,7 +1923,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B157" t="s">
         <v>43</v>
@@ -1934,23 +1931,23 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B158" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B159" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B160" t="s">
         <v>45</v>
@@ -1958,7 +1955,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B161" t="s">
         <v>46</v>
@@ -1966,7 +1963,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B162" t="s">
         <v>47</v>
@@ -1974,39 +1971,39 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B163" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B164" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B165" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B166" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B167" t="s">
         <v>87</v>
@@ -2014,15 +2011,15 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B168" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B169" t="s">
         <v>51</v>
@@ -2030,7 +2027,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B170" t="s">
         <v>52</v>
@@ -2038,63 +2035,63 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B171" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B172" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B173" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B174" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B175" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B176" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B177" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B178" t="s">
         <v>57</v>
@@ -2102,23 +2099,23 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B179" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
+        <v>89</v>
+      </c>
+      <c r="B180" t="s">
         <v>90</v>
-      </c>
-      <c r="B180" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B181" t="s">
         <v>91</v>
@@ -2126,47 +2123,47 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B182" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B184" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B186" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
@@ -2174,7 +2171,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
@@ -2182,7 +2179,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B189" t="s">
         <v>12</v>
@@ -2190,15 +2187,15 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B191" t="s">
         <v>15</v>
@@ -2206,31 +2203,31 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B193" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B194" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B195" t="s">
         <v>17</v>
@@ -2238,47 +2235,47 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B196" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B197" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B198" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B199" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B200" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B201" t="s">
         <v>20</v>
@@ -2286,47 +2283,47 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B202" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B203" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B204" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B205" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B206" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B207" t="s">
         <v>25</v>
@@ -2334,7 +2331,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B208" t="s">
         <v>26</v>
@@ -2342,39 +2339,39 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B209" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B210" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B211" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B212" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B213" t="s">
         <v>32</v>
@@ -2382,15 +2379,15 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B214" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B215" t="s">
         <v>37</v>
@@ -2398,39 +2395,39 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B216" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B217" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B218" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B219" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B220" t="s">
         <v>39</v>
@@ -2438,7 +2435,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B221" t="s">
         <v>40</v>
@@ -2446,7 +2443,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B222" t="s">
         <v>41</v>
@@ -2454,7 +2451,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B223" t="s">
         <v>42</v>
@@ -2462,39 +2459,39 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B224" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B225" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B226" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B227" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B228" t="s">
         <v>45</v>
@@ -2502,7 +2499,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B229" t="s">
         <v>46</v>
@@ -2510,7 +2507,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B230" t="s">
         <v>47</v>
@@ -2518,7 +2515,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B231" t="s">
         <v>48</v>
@@ -2526,39 +2523,39 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B232" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B233" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B234" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B235" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B236" t="s">
         <v>51</v>
@@ -2566,55 +2563,55 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B237" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B238" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B239" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B240" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B241" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B242" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B243" t="s">
         <v>55</v>
@@ -2622,23 +2619,23 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B244" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B245" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B246" t="s">
         <v>57</v>
@@ -2646,15 +2643,15 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B247" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B248" t="s">
         <v>4</v>
@@ -2662,63 +2659,63 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
+        <v>103</v>
+      </c>
+      <c r="B249" t="s">
         <v>104</v>
-      </c>
-      <c r="B249" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B250" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B252" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B253" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B254" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B255" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B256" t="s">
         <v>10</v>
@@ -2726,7 +2723,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B257" t="s">
         <v>11</v>
@@ -2734,31 +2731,31 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B258" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B260" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B261" t="s">
         <v>16</v>
@@ -2766,7 +2763,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B262" t="s">
         <v>17</v>
@@ -2774,47 +2771,47 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B263" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B264" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B265" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B266" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B267" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B268" t="s">
         <v>20</v>
@@ -2822,31 +2819,31 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B269" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B270" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B271" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B272" t="s">
         <v>28</v>
@@ -2854,23 +2851,23 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B273" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B274" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B275" t="s">
         <v>32</v>
@@ -2878,71 +2875,71 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B276" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B277" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B278" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B279" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B280" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B281" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B282" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B283" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B284" t="s">
         <v>39</v>
@@ -2950,15 +2947,15 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B285" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B286" t="s">
         <v>43</v>
@@ -2966,39 +2963,39 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B287" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B288" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B289" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B290" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B291" t="s">
         <v>47</v>
@@ -3006,7 +3003,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B292" t="s">
         <v>48</v>
@@ -3014,23 +3011,23 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B293" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B294" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B295" t="s">
         <v>51</v>
@@ -3038,39 +3035,39 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B296" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B297" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B298" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B299" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B300" t="s">
         <v>56</v>
@@ -3078,18 +3075,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B301" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s">
-        <v>104</v>
-      </c>
-      <c r="B302" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/02 impact country names per year.xlsx
+++ b/data/02 impact country names per year.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>project_year</t>
   </si>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>Armenia</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
   </si>
   <si>
     <t>Benin</t>
@@ -2134,7 +2131,7 @@
         <v>89</v>
       </c>
       <c r="B183" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
@@ -2142,7 +2139,7 @@
         <v>89</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="185">
@@ -2150,7 +2147,7 @@
         <v>89</v>
       </c>
       <c r="B185" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186">
@@ -2158,7 +2155,7 @@
         <v>89</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187">
@@ -2166,7 +2163,7 @@
         <v>89</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188">
@@ -2174,7 +2171,7 @@
         <v>89</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189">
@@ -2182,7 +2179,7 @@
         <v>89</v>
       </c>
       <c r="B189" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190">
@@ -2190,7 +2187,7 @@
         <v>89</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191">
@@ -2198,7 +2195,7 @@
         <v>89</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="192">
@@ -2206,7 +2203,7 @@
         <v>89</v>
       </c>
       <c r="B192" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="193">
@@ -2214,7 +2211,7 @@
         <v>89</v>
       </c>
       <c r="B193" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194">
@@ -2222,7 +2219,7 @@
         <v>89</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195">
@@ -2230,7 +2227,7 @@
         <v>89</v>
       </c>
       <c r="B195" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="196">
@@ -2238,7 +2235,7 @@
         <v>89</v>
       </c>
       <c r="B196" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197">
@@ -2246,7 +2243,7 @@
         <v>89</v>
       </c>
       <c r="B197" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198">
@@ -2254,7 +2251,7 @@
         <v>89</v>
       </c>
       <c r="B198" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="199">
@@ -2262,7 +2259,7 @@
         <v>89</v>
       </c>
       <c r="B199" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200">
@@ -2270,7 +2267,7 @@
         <v>89</v>
       </c>
       <c r="B200" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201">
@@ -2278,7 +2275,7 @@
         <v>89</v>
       </c>
       <c r="B201" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202">
@@ -2286,7 +2283,7 @@
         <v>89</v>
       </c>
       <c r="B202" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203">
@@ -2294,7 +2291,7 @@
         <v>89</v>
       </c>
       <c r="B203" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="204">
@@ -2302,7 +2299,7 @@
         <v>89</v>
       </c>
       <c r="B204" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="205">
@@ -2310,7 +2307,7 @@
         <v>89</v>
       </c>
       <c r="B205" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206">
@@ -2318,7 +2315,7 @@
         <v>89</v>
       </c>
       <c r="B206" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207">
@@ -2326,7 +2323,7 @@
         <v>89</v>
       </c>
       <c r="B207" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="208">
@@ -2334,7 +2331,7 @@
         <v>89</v>
       </c>
       <c r="B208" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="209">
@@ -2342,7 +2339,7 @@
         <v>89</v>
       </c>
       <c r="B209" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="210">
@@ -2350,7 +2347,7 @@
         <v>89</v>
       </c>
       <c r="B210" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="211">
@@ -2358,7 +2355,7 @@
         <v>89</v>
       </c>
       <c r="B211" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212">
@@ -2366,7 +2363,7 @@
         <v>89</v>
       </c>
       <c r="B212" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="213">
@@ -2374,7 +2371,7 @@
         <v>89</v>
       </c>
       <c r="B213" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214">
@@ -2382,7 +2379,7 @@
         <v>89</v>
       </c>
       <c r="B214" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215">
@@ -2390,7 +2387,7 @@
         <v>89</v>
       </c>
       <c r="B215" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
     </row>
     <row r="216">
@@ -2398,7 +2395,7 @@
         <v>89</v>
       </c>
       <c r="B216" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="217">
@@ -2406,7 +2403,7 @@
         <v>89</v>
       </c>
       <c r="B217" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="218">
@@ -2414,7 +2411,7 @@
         <v>89</v>
       </c>
       <c r="B218" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="219">
@@ -2422,7 +2419,7 @@
         <v>89</v>
       </c>
       <c r="B219" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="220">
@@ -2430,7 +2427,7 @@
         <v>89</v>
       </c>
       <c r="B220" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="221">
@@ -2438,7 +2435,7 @@
         <v>89</v>
       </c>
       <c r="B221" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="222">
@@ -2446,7 +2443,7 @@
         <v>89</v>
       </c>
       <c r="B222" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="223">
@@ -2454,7 +2451,7 @@
         <v>89</v>
       </c>
       <c r="B223" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="224">
@@ -2462,7 +2459,7 @@
         <v>89</v>
       </c>
       <c r="B224" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
     </row>
     <row r="225">
@@ -2470,7 +2467,7 @@
         <v>89</v>
       </c>
       <c r="B225" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="226">
@@ -2478,7 +2475,7 @@
         <v>89</v>
       </c>
       <c r="B226" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="227">
@@ -2486,7 +2483,7 @@
         <v>89</v>
       </c>
       <c r="B227" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="228">
@@ -2494,7 +2491,7 @@
         <v>89</v>
       </c>
       <c r="B228" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="229">
@@ -2502,7 +2499,7 @@
         <v>89</v>
       </c>
       <c r="B229" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="230">
@@ -2510,7 +2507,7 @@
         <v>89</v>
       </c>
       <c r="B230" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="231">
@@ -2518,7 +2515,7 @@
         <v>89</v>
       </c>
       <c r="B231" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="232">
@@ -2526,7 +2523,7 @@
         <v>89</v>
       </c>
       <c r="B232" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="233">
@@ -2534,7 +2531,7 @@
         <v>89</v>
       </c>
       <c r="B233" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="234">
@@ -2542,7 +2539,7 @@
         <v>89</v>
       </c>
       <c r="B234" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="235">
@@ -2550,7 +2547,7 @@
         <v>89</v>
       </c>
       <c r="B235" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="236">
@@ -2558,7 +2555,7 @@
         <v>89</v>
       </c>
       <c r="B236" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="237">
@@ -2566,7 +2563,7 @@
         <v>89</v>
       </c>
       <c r="B237" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="238">
@@ -2574,7 +2571,7 @@
         <v>89</v>
       </c>
       <c r="B238" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="239">
@@ -2582,7 +2579,7 @@
         <v>89</v>
       </c>
       <c r="B239" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="240">
@@ -2590,7 +2587,7 @@
         <v>89</v>
       </c>
       <c r="B240" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="241">
@@ -2598,7 +2595,7 @@
         <v>89</v>
       </c>
       <c r="B241" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="242">
@@ -2606,7 +2603,7 @@
         <v>89</v>
       </c>
       <c r="B242" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="243">
@@ -2614,7 +2611,7 @@
         <v>89</v>
       </c>
       <c r="B243" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244">
@@ -2622,7 +2619,7 @@
         <v>89</v>
       </c>
       <c r="B244" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="245">
@@ -2630,454 +2627,446 @@
         <v>89</v>
       </c>
       <c r="B245" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B246" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B247" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
+        <v>102</v>
+      </c>
+      <c r="B248" t="s">
         <v>103</v>
-      </c>
-      <c r="B248" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B249" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B251" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B252" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B253" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B254" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B255" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B256" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B257" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B259" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B261" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B262" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B263" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B264" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B265" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B266" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B267" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B268" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B269" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B270" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B271" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B272" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B273" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B274" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B275" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B276" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B277" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B278" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B279" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B280" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B281" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B282" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B283" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B284" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B285" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B286" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B287" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B288" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B289" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B290" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B291" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B292" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B293" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B294" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B295" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B296" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B297" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B298" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B299" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B300" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s">
-        <v>103</v>
-      </c>
-      <c r="B301" t="s">
         <v>57</v>
       </c>
     </row>
